--- a/修理価格一覧app用.xlsx
+++ b/修理価格一覧app用.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALES\work\git_space\repair_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769CFB7A-73A6-40DD-8ECC-34C8A7A4C425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82466A0-E3F0-4D29-9C45-B507BC1F7E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C9D77304-95C3-4D02-9D52-AF4D2AF3AC86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C9D77304-95C3-4D02-9D52-AF4D2AF3AC86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>修理内容</t>
     <rPh sb="0" eb="4">
@@ -52,70 +52,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C63用ソリ 1本</t>
-  </si>
-  <si>
-    <t>C63RC用ソリ 1本</t>
-  </si>
-  <si>
-    <t>C63用背受け</t>
-  </si>
-  <si>
-    <t>ウインザーチェア 背板</t>
-  </si>
-  <si>
-    <t>ウインザーチェア 背受け</t>
-  </si>
-  <si>
-    <t>ウインザーチェア 笠木</t>
-  </si>
-  <si>
-    <t>ウインザーチェア アーム(186/DK286用)</t>
-  </si>
-  <si>
-    <t>ウインザーチェア 肘受け</t>
-  </si>
-  <si>
-    <t>ウインザーチェア 脚ヌキ</t>
-  </si>
-  <si>
-    <t>ウインザーチェア 座板</t>
-  </si>
-  <si>
-    <t>ウインザーチェア 回転盤</t>
-  </si>
-  <si>
-    <t>籐巻き直し（肘）修理</t>
-  </si>
-  <si>
     <t>キャスター修理</t>
   </si>
   <si>
-    <t>組み直し修理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウインザー座割れ接着</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>籐張り替え修理</t>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dチェア再塗装</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アームチェア再塗装</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウインザー回転盤交換修理</t>
-    <phoneticPr fontId="1"/>
+    <t>チェア籐張り（肘あり・なし）</t>
+  </si>
+  <si>
+    <t>チェア肘部分籐張巻き直し(アイガー等)</t>
+  </si>
+  <si>
+    <t>チェア組み直し（肘あり・なし）</t>
+  </si>
+  <si>
+    <t>ベンチ組み直し</t>
+  </si>
+  <si>
+    <t>ウインザーシート座割れ接着</t>
+  </si>
+  <si>
+    <t>ウィンザー回転盤の交換</t>
+  </si>
+  <si>
+    <t>ダイニングチェア塗装</t>
+  </si>
+  <si>
+    <t>ダイニングアームチェア塗装</t>
+  </si>
+  <si>
+    <t>C63用そり（1本）</t>
+  </si>
+  <si>
+    <t>6RC用そり（1本）</t>
+  </si>
+  <si>
+    <t>C63背受け</t>
+  </si>
+  <si>
+    <t>ウインザーチェア背板</t>
+  </si>
+  <si>
+    <t>ウインザーチェア背受け</t>
+  </si>
+  <si>
+    <t>ウインザーチェア笠木</t>
+  </si>
+  <si>
+    <t>ウインザーチェア(186,DK286用）アーム</t>
+  </si>
+  <si>
+    <t>ウインザーチェア肘受け</t>
+  </si>
+  <si>
+    <t>ウインザーチェア脚樌</t>
+  </si>
+  <si>
+    <t>ウインザーチェア座板</t>
+  </si>
+  <si>
+    <t>ウィンザーチェア脚1本新規作成</t>
+  </si>
+  <si>
+    <t>回転盤　※新旧仕様が多数あるため簡単に交換出来ない場合あり。要確認。</t>
   </si>
 </sst>
 </file>
@@ -183,9 +180,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -223,7 +220,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -329,7 +326,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -479,19 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243678B9-543B-4D21-BA9C-91694C2DFBCE}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,156 +496,172 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="B15">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="B16">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B17">
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B6">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="B18">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="B19">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>16900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
       <c r="B20">
-        <v>4300</v>
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>4600</v>
       </c>
     </row>
   </sheetData>
